--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>64.59777</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86.58387</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.75551</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05072</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.12763</v>
-      </c>
-      <c r="G2" t="n">
-        <v>108.32929</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.3395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40.61135</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.25092</v>
-      </c>
-      <c r="K2" t="n">
-        <v>70.45846</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17.88564</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.85751</v>
-      </c>
-      <c r="N2" t="n">
-        <v>113.29214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>69.51888</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8.18154</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>92.4372</v>
-      </c>
-      <c r="R2" t="n">
-        <v>37.77647</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>16.5415</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.3215</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.26038</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.65028</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10.04272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>47.94663</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>140.6106</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>38.68822</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>24.38969</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.12116</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1891.81754</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>173.63199</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.2692</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>54.70034</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>109.27191</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>188.67117</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.242559999999999</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>47.35503</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>90.49242</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>52.24666</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>73.42936</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.87982</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>98.6541</v>
-      </c>
-      <c r="C3" t="n">
-        <v>162.15911</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.83042</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.18183</v>
-      </c>
-      <c r="F3" t="n">
-        <v>51.15464</v>
-      </c>
-      <c r="G3" t="n">
-        <v>194.38545</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26.07041</v>
-      </c>
-      <c r="I3" t="n">
-        <v>63.43018</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.98594</v>
-      </c>
-      <c r="K3" t="n">
-        <v>106.05703</v>
-      </c>
-      <c r="L3" t="n">
-        <v>24.8445</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34.52158</v>
-      </c>
-      <c r="N3" t="n">
-        <v>198.10404</v>
-      </c>
-      <c r="O3" t="n">
-        <v>103.26729</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.01845</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>128.09847</v>
-      </c>
-      <c r="R3" t="n">
-        <v>52.58084</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01057</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27.87752</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.18087</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.38995</v>
-      </c>
-      <c r="W3" t="n">
-        <v>14.77843</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12.14451</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>76.04465999999999</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>200.49798</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>65.83923</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>42.19823</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.03725</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3037.26994</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>327.96745</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.39453</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>99.14394</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>180.54846</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>266.09287</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.42089</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>68.56811</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>146.89701</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>67.01472</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>105.44386</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13.42962</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>154.91149</v>
-      </c>
-      <c r="C4" t="n">
-        <v>235.73148</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.08661</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.11818</v>
-      </c>
-      <c r="F4" t="n">
-        <v>66.65285</v>
-      </c>
-      <c r="G4" t="n">
-        <v>284.12213</v>
-      </c>
-      <c r="H4" t="n">
-        <v>35.11265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95.93684</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46.5761</v>
-      </c>
-      <c r="K4" t="n">
-        <v>171.06455</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39.64681</v>
-      </c>
-      <c r="M4" t="n">
-        <v>49.20076</v>
-      </c>
-      <c r="N4" t="n">
-        <v>298.70001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>139.09717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13.91336</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>186.01539</v>
-      </c>
-      <c r="R4" t="n">
-        <v>72.42377999999999</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>39.12681</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.24032</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.87102</v>
-      </c>
-      <c r="W4" t="n">
-        <v>26.99935</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21.84605</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>116.6883</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>304.06315</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>89.14246</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>74.65242000000001</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>4493.42577</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>523.86251</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.98157</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>135.78053</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>272.18264</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>375.07483</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.66829</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>94.71183000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>203.74786</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>75.76765</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>176.15336</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>20.55466</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
